--- a/lineage_results_2_compute_and_insert_contract_snapshot_activity.hql.xlsx
+++ b/lineage_results_2_compute_and_insert_contract_snapshot_activity.hql.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YBQB7360\Documents\Data gouvernance\ocm_data_gouv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FB142F-8D23-4A98-8DCA-106B92D6CBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C1AC99-0544-4B58-91BB-B7809D4866E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
